--- a/themes_details.xlsx
+++ b/themes_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
         <v>19</v>
@@ -514,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
         <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>18</v>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -657,73 +657,54 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tourisme</t>
+          <t>Économie</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>116</v>
+      </c>
+      <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Économie</t>
+          <t>Éducation</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Éducation</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
